--- a/schedule_data.xlsx
+++ b/schedule_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryota\Desktop\My_Programs\todays_schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryota\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00F926D-326B-4062-9AD0-850C61379582}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ABFAD8-28C2-416E-A68F-B49D5FA44BBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12804" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12804" windowHeight="8772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>月曜日</t>
   </si>
@@ -43,34 +43,66 @@
     <t>日曜日</t>
   </si>
   <si>
-    <t>ソフトウェアデザイン</t>
-  </si>
-  <si>
-    <t>日本学</t>
-  </si>
-  <si>
-    <t>アルゴリズムデザイン</t>
-  </si>
-  <si>
-    <t>情報工学系代数学</t>
-  </si>
-  <si>
-    <t>組込みシステム</t>
-  </si>
-  <si>
-    <t>オペレーティングシステム</t>
-  </si>
-  <si>
-    <t>確率と統計</t>
-  </si>
-  <si>
-    <t>情報ネットワーク</t>
-  </si>
-  <si>
-    <t>プロジェクトデザイン</t>
-  </si>
-  <si>
-    <t>イングリッシュトピックス</t>
+    <t>情報理論</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リロン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>統計学</t>
+    <rPh sb="0" eb="2">
+      <t>トウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>社会</t>
+    <rPh sb="0" eb="2">
+      <t>シャカイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>英語</t>
+    <rPh sb="0" eb="2">
+      <t>エイゴ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>算数</t>
+    <rPh sb="0" eb="2">
+      <t>サンスウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>実習</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシュウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ドイツ語</t>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1187,7 +1219,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1225,11 +1257,9 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="6"/>
@@ -1238,17 +1268,13 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1260,12 +1286,16 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="6"/>
@@ -1275,13 +1305,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="6"/>
